--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp15-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp15-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Bmp15</t>
+  </si>
+  <si>
+    <t>Bmpr1b</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Bmp15</t>
-  </si>
-  <si>
-    <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -531,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H2">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,22 +558,22 @@
         <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q2">
-        <v>0.09483111655111109</v>
+        <v>0.09148954730666667</v>
       </c>
       <c r="R2">
-        <v>0.85348004896</v>
+        <v>0.8234059257599999</v>
       </c>
       <c r="S2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="T2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H3">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N3">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q3">
-        <v>0.013373857252</v>
+        <v>0.03751929305866667</v>
       </c>
       <c r="R3">
-        <v>0.120364715268</v>
+        <v>0.337673637528</v>
       </c>
       <c r="S3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="T3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
     </row>
   </sheetData>
